--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Amh-Acvr1.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Amh-Acvr1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,9 @@
     <t>ECs</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>Acvr1</t>
-  </si>
-  <si>
-    <t>FAPs</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +519,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.588593347140969</v>
+        <v>0.9043393333333333</v>
       </c>
       <c r="H2">
-        <v>0.588593347140969</v>
+        <v>2.713018</v>
       </c>
       <c r="I2">
-        <v>0.5061099187528496</v>
+        <v>0.5538994939397102</v>
       </c>
       <c r="J2">
-        <v>0.5061099187528496</v>
+        <v>0.5538994939397101</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.43170609809926</v>
+        <v>5.057757666666666</v>
       </c>
       <c r="N2">
-        <v>3.43170609809926</v>
+        <v>15.173273</v>
       </c>
       <c r="O2">
-        <v>0.1270683788720914</v>
+        <v>0.173378811020062</v>
       </c>
       <c r="P2">
-        <v>0.1270683788720914</v>
+        <v>0.173378811020062</v>
       </c>
       <c r="Q2">
-        <v>2.019879378684318</v>
+        <v>4.573929196434888</v>
       </c>
       <c r="R2">
-        <v>2.019879378684318</v>
+        <v>41.165362767914</v>
       </c>
       <c r="S2">
-        <v>0.06431056690701051</v>
+        <v>0.09603443568388097</v>
       </c>
       <c r="T2">
-        <v>0.06431056690701051</v>
+        <v>0.09603443568388097</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +581,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.588593347140969</v>
+        <v>0.9043393333333333</v>
       </c>
       <c r="H3">
-        <v>0.588593347140969</v>
+        <v>2.713018</v>
       </c>
       <c r="I3">
-        <v>0.5061099187528496</v>
+        <v>0.5538994939397102</v>
       </c>
       <c r="J3">
-        <v>0.5061099187528496</v>
+        <v>0.5538994939397101</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>14.1117256832495</v>
+        <v>14.247411</v>
       </c>
       <c r="N3">
-        <v>14.1117256832495</v>
+        <v>42.742233</v>
       </c>
       <c r="O3">
-        <v>0.5225255468850774</v>
+        <v>0.4883980890531961</v>
       </c>
       <c r="P3">
-        <v>0.5225255468850774</v>
+        <v>0.4883980890531961</v>
       </c>
       <c r="Q3">
-        <v>8.306067853839</v>
+        <v>12.884494165466</v>
       </c>
       <c r="R3">
-        <v>8.306067853839</v>
+        <v>115.960447489194</v>
       </c>
       <c r="S3">
-        <v>0.2644553620802948</v>
+        <v>0.2705234543676868</v>
       </c>
       <c r="T3">
-        <v>0.2644553620802948</v>
+        <v>0.2705234543676868</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,61 +643,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.588593347140969</v>
+        <v>0.9043393333333333</v>
       </c>
       <c r="H4">
-        <v>0.588593347140969</v>
+        <v>2.713018</v>
       </c>
       <c r="I4">
-        <v>0.5061099187528496</v>
+        <v>0.5538994939397102</v>
       </c>
       <c r="J4">
-        <v>0.5061099187528496</v>
+        <v>0.5538994939397101</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>9.463335193727371</v>
+        <v>9.866548666666667</v>
       </c>
       <c r="N4">
-        <v>9.463335193727371</v>
+        <v>29.599646</v>
       </c>
       <c r="O4">
-        <v>0.3504060742428313</v>
+        <v>0.3382230999267418</v>
       </c>
       <c r="P4">
-        <v>0.3504060742428313</v>
+        <v>0.3382230999267418</v>
       </c>
       <c r="Q4">
-        <v>5.570056136792924</v>
+        <v>8.922708043514222</v>
       </c>
       <c r="R4">
-        <v>5.570056136792924</v>
+        <v>80.30437239162799</v>
       </c>
       <c r="S4">
-        <v>0.1773439897655444</v>
+        <v>0.1873416038881423</v>
       </c>
       <c r="T4">
-        <v>0.1773439897655444</v>
+        <v>0.1873416038881423</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,10 +705,10 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
         <v>20</v>
@@ -717,49 +717,49 @@
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.574381977648899</v>
+        <v>0.133128</v>
       </c>
       <c r="H5">
-        <v>0.574381977648899</v>
+        <v>0.399384</v>
       </c>
       <c r="I5">
-        <v>0.4938900812471503</v>
+        <v>0.08153967112920636</v>
       </c>
       <c r="J5">
-        <v>0.4938900812471503</v>
+        <v>0.08153967112920636</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.43170609809926</v>
+        <v>5.057757666666666</v>
       </c>
       <c r="N5">
-        <v>3.43170609809926</v>
+        <v>15.173273</v>
       </c>
       <c r="O5">
-        <v>0.1270683788720914</v>
+        <v>0.173378811020062</v>
       </c>
       <c r="P5">
-        <v>0.1270683788720914</v>
+        <v>0.173378811020062</v>
       </c>
       <c r="Q5">
-        <v>1.971110135336039</v>
+        <v>0.6733291626479999</v>
       </c>
       <c r="R5">
-        <v>1.971110135336039</v>
+        <v>6.059962463832</v>
       </c>
       <c r="S5">
-        <v>0.06275781196508091</v>
+        <v>0.01413725123134867</v>
       </c>
       <c r="T5">
-        <v>0.06275781196508091</v>
+        <v>0.01413725123134867</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,61 +767,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.574381977648899</v>
+        <v>0.133128</v>
       </c>
       <c r="H6">
-        <v>0.574381977648899</v>
+        <v>0.399384</v>
       </c>
       <c r="I6">
-        <v>0.4938900812471503</v>
+        <v>0.08153967112920636</v>
       </c>
       <c r="J6">
-        <v>0.4938900812471503</v>
+        <v>0.08153967112920636</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>14.1117256832495</v>
+        <v>14.247411</v>
       </c>
       <c r="N6">
-        <v>14.1117256832495</v>
+        <v>42.742233</v>
       </c>
       <c r="O6">
-        <v>0.5225255468850774</v>
+        <v>0.4883980890531961</v>
       </c>
       <c r="P6">
-        <v>0.5225255468850774</v>
+        <v>0.4883980890531961</v>
       </c>
       <c r="Q6">
-        <v>8.105520905983608</v>
+        <v>1.896729331608</v>
       </c>
       <c r="R6">
-        <v>8.105520905983608</v>
+        <v>17.070563984472</v>
       </c>
       <c r="S6">
-        <v>0.2580701848047825</v>
+        <v>0.03982381956153046</v>
       </c>
       <c r="T6">
-        <v>0.2580701848047825</v>
+        <v>0.03982381956153046</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,61 +829,247 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G7">
+        <v>0.133128</v>
+      </c>
+      <c r="H7">
+        <v>0.399384</v>
+      </c>
+      <c r="I7">
+        <v>0.08153967112920636</v>
+      </c>
+      <c r="J7">
+        <v>0.08153967112920636</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>9.866548666666667</v>
+      </c>
+      <c r="N7">
+        <v>29.599646</v>
+      </c>
+      <c r="O7">
+        <v>0.3382230999267418</v>
+      </c>
+      <c r="P7">
+        <v>0.3382230999267418</v>
+      </c>
+      <c r="Q7">
+        <v>1.313513890896</v>
+      </c>
+      <c r="R7">
+        <v>11.821625018064</v>
+      </c>
+      <c r="S7">
+        <v>0.02757860033632723</v>
+      </c>
+      <c r="T7">
+        <v>0.02757860033632723</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
         <v>23</v>
       </c>
-      <c r="D7" t="s">
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0.5952103333333333</v>
+      </c>
+      <c r="H8">
+        <v>1.785631</v>
+      </c>
+      <c r="I8">
+        <v>0.3645608349310836</v>
+      </c>
+      <c r="J8">
+        <v>0.3645608349310835</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>5.057757666666666</v>
+      </c>
+      <c r="N8">
+        <v>15.173273</v>
+      </c>
+      <c r="O8">
+        <v>0.173378811020062</v>
+      </c>
+      <c r="P8">
+        <v>0.173378811020062</v>
+      </c>
+      <c r="Q8">
+        <v>3.010429626695888</v>
+      </c>
+      <c r="R8">
+        <v>27.093866640263</v>
+      </c>
+      <c r="S8">
+        <v>0.06320712410483235</v>
+      </c>
+      <c r="T8">
+        <v>0.06320712410483235</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>21</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>0.574381977648899</v>
-      </c>
-      <c r="H7">
-        <v>0.574381977648899</v>
-      </c>
-      <c r="I7">
-        <v>0.4938900812471503</v>
-      </c>
-      <c r="J7">
-        <v>0.4938900812471503</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>9.463335193727371</v>
-      </c>
-      <c r="N7">
-        <v>9.463335193727371</v>
-      </c>
-      <c r="O7">
-        <v>0.3504060742428313</v>
-      </c>
-      <c r="P7">
-        <v>0.3504060742428313</v>
-      </c>
-      <c r="Q7">
-        <v>5.435569183727554</v>
-      </c>
-      <c r="R7">
-        <v>5.435569183727554</v>
-      </c>
-      <c r="S7">
-        <v>0.173062084477287</v>
-      </c>
-      <c r="T7">
-        <v>0.173062084477287</v>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0.5952103333333333</v>
+      </c>
+      <c r="H9">
+        <v>1.785631</v>
+      </c>
+      <c r="I9">
+        <v>0.3645608349310836</v>
+      </c>
+      <c r="J9">
+        <v>0.3645608349310835</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>14.247411</v>
+      </c>
+      <c r="N9">
+        <v>42.742233</v>
+      </c>
+      <c r="O9">
+        <v>0.4883980890531961</v>
+      </c>
+      <c r="P9">
+        <v>0.4883980890531961</v>
+      </c>
+      <c r="Q9">
+        <v>8.480206250446999</v>
+      </c>
+      <c r="R9">
+        <v>76.32185625402299</v>
+      </c>
+      <c r="S9">
+        <v>0.1780508151239789</v>
+      </c>
+      <c r="T9">
+        <v>0.1780508151239789</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.5952103333333333</v>
+      </c>
+      <c r="H10">
+        <v>1.785631</v>
+      </c>
+      <c r="I10">
+        <v>0.3645608349310836</v>
+      </c>
+      <c r="J10">
+        <v>0.3645608349310835</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>9.866548666666667</v>
+      </c>
+      <c r="N10">
+        <v>29.599646</v>
+      </c>
+      <c r="O10">
+        <v>0.3382230999267418</v>
+      </c>
+      <c r="P10">
+        <v>0.3382230999267418</v>
+      </c>
+      <c r="Q10">
+        <v>5.872671720736221</v>
+      </c>
+      <c r="R10">
+        <v>52.854045486626</v>
+      </c>
+      <c r="S10">
+        <v>0.1233028957022723</v>
+      </c>
+      <c r="T10">
+        <v>0.1233028957022723</v>
       </c>
     </row>
   </sheetData>
